--- a/public/excel/Template AdjOut Stock.xlsx
+++ b/public/excel/Template AdjOut Stock.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Material</t>
   </si>
@@ -48,19 +48,10 @@
     <t>Warehouse</t>
   </si>
   <si>
-    <t>AB-01</t>
-  </si>
-  <si>
-    <t>AB-02</t>
-  </si>
-  <si>
-    <t>AB-03</t>
-  </si>
-  <si>
-    <t>Testing Upload</t>
-  </si>
-  <si>
-    <t>PC</t>
+    <t>OIL ENGINE SAE 15W-40</t>
+  </si>
+  <si>
+    <t>LITER</t>
   </si>
 </sst>
 </file>
@@ -426,7 +417,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -434,16 +425,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.77734375" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -470,62 +461,22 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="2">
+        <v>700006</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2">
-        <v>10</v>
+        <v>303</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>1500</v>
+        <v>36769</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>2000</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>3000</v>
-      </c>
-      <c r="F4">
         <v>1</v>
       </c>
     </row>

--- a/public/excel/Template AdjOut Stock.xlsx
+++ b/public/excel/Template AdjOut Stock.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Material</t>
   </si>
@@ -48,10 +48,10 @@
     <t>Warehouse</t>
   </si>
   <si>
-    <t>OIL ENGINE SAE 15W-40</t>
-  </si>
-  <si>
-    <t>LITER</t>
+    <t>Meja</t>
+  </si>
+  <si>
+    <t>unit</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -461,20 +461,20 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>700006</v>
+      <c r="A2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>36769</v>
+        <v>558250</v>
       </c>
       <c r="F2">
         <v>1</v>

--- a/public/excel/Template AdjOut Stock.xlsx
+++ b/public/excel/Template AdjOut Stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Material</t>
   </si>
@@ -48,16 +48,20 @@
     <t>Warehouse</t>
   </si>
   <si>
-    <t>Meja</t>
-  </si>
-  <si>
-    <t>unit</t>
+    <t>3E-4880</t>
+  </si>
+  <si>
+    <t>Coupling AS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -75,24 +79,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF212529"/>
-      <name val="Source Sans Pro"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,18 +115,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -417,7 +446,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -428,16 +457,17 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -453,7 +483,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -464,24 +494,25 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>558250</v>
+        <v>2</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="3">
+        <v>10</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/public/excel/Template AdjOut Stock.xlsx
+++ b/public/excel/Template AdjOut Stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,21 +48,17 @@
     <t>Warehouse</t>
   </si>
   <si>
-    <t>3E-4880</t>
-  </si>
-  <si>
-    <t>Coupling AS</t>
+    <t>OIL ENGINE SAE 15W-40</t>
+  </si>
+  <si>
+    <t>LITER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,31 +75,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,36 +110,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -457,17 +435,16 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -483,36 +460,35 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="2">
+        <v>700006</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2">
+        <v>283</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="3">
-        <v>10</v>
+      <c r="E2">
+        <v>36769</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
-  </conditionalFormatting>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
